--- a/patient_data/patient_95.xlsx
+++ b/patient_data/patient_95.xlsx
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1078,16 +1078,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1232,31 +1232,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1309,31 +1309,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1478,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
